--- a/ConfigFiles/DT-base-type-sensors.xlsx
+++ b/ConfigFiles/DT-base-type-sensors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcel\Documents\GitHub\DTBase-Hivernacle\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1606928-0E8B-4FD6-B344-24DD26D3307C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5273619-12F2-47E4-AFA8-BB6244E39DAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="6555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>type_name</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Guardian</t>
   </si>
   <si>
@@ -64,17 +61,59 @@
     <t>namev</t>
   </si>
   <si>
-    <t>X</t>
+    <t>Co2</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>ePAR</t>
+  </si>
+  <si>
+    <t>VPD</t>
+  </si>
+  <si>
+    <t>DewPoint</t>
+  </si>
+  <si>
+    <t>FanRPM</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>kPa</t>
+  </si>
+  <si>
+    <t>µmol m-2 s-1</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>SP_522</t>
+  </si>
+  <si>
+    <t>Sensors that measures the solar radiation.</t>
+  </si>
+  <si>
+    <t>Pyranometer</t>
+  </si>
+  <si>
+    <t>W m-2</t>
+  </si>
+  <si>
+    <t>SQ_618</t>
+  </si>
+  <si>
+    <t>Sensors that measures the ePAR.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,12 +128,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,13 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,105 +467,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1047420"/>
+  <dimension ref="A1:E1047420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1047420" spans="4:4">
-      <c r="D1047420" t="s">
-        <v>3</v>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1047420" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C1047420" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
